--- a/biology/Médecine/Maladie_lysosomale/Maladie_lysosomale.xlsx
+++ b/biology/Médecine/Maladie_lysosomale/Maladie_lysosomale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une maladie lysosomale est une maladie, généralement génétique, de l'enfant et de l'adulte, en rapport avec le fonctionnement anormal d'une des enzymes contenues dans le lysosome.
 On dénombre une cinquantaine de maladies lysosomales, dont le point commun est une déficience génétique aboutissant au dysfonctionnement du lysosome. Les lysosomes sont des organites du cytoplasme qui contiennent des enzymes (spécifiquement, des hydrolases acides) qui sont chargées d'assimiler les déchets (appelés métabolites) produits par les cellules. Cette assimilation est le travail de protéines produite par le lysosome. Pour chacune des maladies lysosomales, un défaut d'un gène spécifique entraîne la non production ou la production insuffisante de la protéine chargée de l'assimilation des métabolites.
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,7 +553,9 @@
           <t>Glycogénoses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les autres maladies lysosomales du métabolisme du glycogène sont répertoriées dans l'article maladie génétique du métabolisme des glucides.
 </t>
@@ -571,6 +587,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -597,6 +615,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -622,7 +642,9 @@
           <t>Mucopolysaccharidoses (MPS)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Sept mucopolysaccharidoses (MPS) sont décrites :
 MPS I (maladies de Hurler, Hurler/Scheie, Scheie) ;
@@ -656,15 +678,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Oligosaccharidoses et glycoprotéinoses</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Oligosaccharidoses
-Mucolipidoses</t>
-        </is>
-      </c>
+          <t>Anomalies du transfert lysosomal</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -687,10 +706,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Anomalies du transfert lysosomal</t>
+          <t>Divers</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -713,36 +734,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Divers</t>
+          <t>Conséquences d'une maladie lysosomale</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Maladie_lysosomale</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Maladie_lysosomale</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Conséquences d'une maladie lysosomale</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon la maladie et le malade, les premiers signes peuvent apparaître très rapidement à la naissance ou au contraire au bout de quelques ou plusieurs années.
 Les symptômes et leurs évolution sont propres à chaque maladie.
